--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Web Development\Documents\Exams\Peparation\Exam-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Web Development\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CF45E5-9CF2-49E5-BFE0-A3D7C9281460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A953BD0B-D176-4574-91B9-90B869952C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Criterios</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>El Diseño es Adaptative y Responsive</t>
+  </si>
+  <si>
+    <t>Los enlaces de las vistas son botones y cumplen con un estandard</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,7 +593,7 @@
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>3</v>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Web Development\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A953BD0B-D176-4574-91B9-90B869952C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5A8AF5-F1C3-49E9-836B-C6BAC9A6994B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,10 +75,10 @@
     <t>La descripcion y el Nombre se ajustan solo a mostrar 50 Caracteres maximo</t>
   </si>
   <si>
-    <t>El Diseño es Adaptative y Responsive</t>
-  </si>
-  <si>
     <t>Los enlaces de las vistas son botones y cumplen con un estandard</t>
+  </si>
+  <si>
+    <t>El Diseño es correcto y cumple con ser Adaptative y Responsive</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,7 +593,7 @@
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>3</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>3</v>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Web Development\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5A8AF5-F1C3-49E9-836B-C6BAC9A6994B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112A30A9-4644-4C1A-8851-8F2E627C0988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -165,6 +165,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,7 +476,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +484,7 @@
     <col min="1" max="1" width="71.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="6"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -491,7 +497,7 @@
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -506,6 +512,7 @@
         <f>IF(B2="Si",0.5,0)</f>
         <v>0.5</v>
       </c>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -518,6 +525,7 @@
         <f t="shared" ref="C3:C10" si="0">IF(B3="Si",0.5,0)</f>
         <v>0.5</v>
       </c>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -530,6 +538,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -542,6 +551,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -554,6 +564,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -566,6 +577,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -578,6 +590,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -590,6 +603,7 @@
         <f t="shared" ref="C9" si="1">IF(B9="Si",0.5,0)</f>
         <v>0.5</v>
       </c>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -602,6 +616,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -614,6 +629,7 @@
         <f t="shared" ref="C11" si="2">IF(B11="Si",0.5,0)</f>
         <v>0.5</v>
       </c>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
@@ -657,7 +673,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Si,No"</formula1>
     </dataValidation>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Web Development\Documents\Exams\Peparation\Exam-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Web Development\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CF45E5-9CF2-49E5-BFE0-A3D7C9281460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD37DE6-04AA-448A-80AE-E2AE6CC85DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Criterios</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Cumple</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>Valor</t>
   </si>
   <si>
@@ -75,7 +72,13 @@
     <t>La descripcion y el Nombre se ajustan solo a mostrar 50 Caracteres maximo</t>
   </si>
   <si>
-    <t>El Diseño es Adaptative y Responsive</t>
+    <t>Los enlaces de las vistas son botones y cumplen con un estandard</t>
+  </si>
+  <si>
+    <t>El Diseño es correcto y cumple con ser Adaptative y Responsive</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -162,6 +165,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,7 +476,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +484,7 @@
     <col min="1" max="1" width="71.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="6"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -486,140 +495,150 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C2" s="9">
         <f>IF(B2="Si",0.5,0)</f>
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C10" si="0">IF(B3="Si",0.5,0)</f>
         <v>0.5</v>
       </c>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" ref="C9" si="1">IF(B9="Si",0.5,0)</f>
         <v>0.5</v>
       </c>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" ref="C11" si="2">IF(B11="Si",0.5,0)</f>
         <v>0.5</v>
       </c>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7">
         <f>SUM(C2:C11)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -638,7 +657,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2 B7:B11">
+  <conditionalFormatting sqref="B2:B11">
     <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -646,20 +665,9 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B6">
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
-      <formula>"Si"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Si,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B11" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"SI,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Web Development\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112A30A9-4644-4C1A-8851-8F2E627C0988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839E2045-ADEB-44B4-B75D-605D93617F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Criterios</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Cumple</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
   <si>
     <t>Valor</t>
@@ -476,7 +473,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,18 +492,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9">
         <f>IF(B2="Si",0.5,0)</f>
@@ -516,10 +513,10 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C10" si="0">IF(B3="Si",0.5,0)</f>
@@ -529,10 +526,10 @@
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
@@ -542,10 +539,10 @@
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
@@ -555,10 +552,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
@@ -568,10 +565,10 @@
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
@@ -581,10 +578,10 @@
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
@@ -594,10 +591,10 @@
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" ref="C9" si="1">IF(B9="Si",0.5,0)</f>
@@ -607,10 +604,10 @@
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
@@ -620,10 +617,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" ref="C11" si="2">IF(B11="Si",0.5,0)</f>
@@ -633,7 +630,7 @@
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7">
@@ -657,7 +654,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2 B7:B11">
+  <conditionalFormatting sqref="B2:B11">
     <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -665,20 +662,9 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B6">
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
-      <formula>"Si"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Si,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B11" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"SI,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Web Development\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839E2045-ADEB-44B4-B75D-605D93617F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2457A290-E050-4451-AAC6-69FED144A947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,17 +173,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="9"/>
@@ -473,7 +463,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,10 +645,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
